--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H2">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N2">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q2">
-        <v>984.7733215663654</v>
+        <v>122.7295664807667</v>
       </c>
       <c r="R2">
-        <v>8862.959894097288</v>
+        <v>1104.5660983269</v>
       </c>
       <c r="S2">
-        <v>0.2855322590253485</v>
+        <v>0.01506205762108161</v>
       </c>
       <c r="T2">
-        <v>0.2855322590253484</v>
+        <v>0.01506205762108161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H3">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q3">
-        <v>13.52392736535089</v>
+        <v>0.4957519806555556</v>
       </c>
       <c r="R3">
-        <v>121.715346288158</v>
+        <v>4.461767825900001</v>
       </c>
       <c r="S3">
-        <v>0.003921224760010048</v>
+        <v>6.084145094384814E-05</v>
       </c>
       <c r="T3">
-        <v>0.003921224760010047</v>
+        <v>6.084145094384814E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H4">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q4">
-        <v>25.37508137938978</v>
+        <v>0.9301844437111112</v>
       </c>
       <c r="R4">
-        <v>228.375732414508</v>
+        <v>8.371659993400002</v>
       </c>
       <c r="S4">
-        <v>0.007357433584497182</v>
+        <v>0.00011415742832927</v>
       </c>
       <c r="T4">
-        <v>0.007357433584497181</v>
+        <v>0.00011415742832927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N5">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q5">
-        <v>1550.644511695757</v>
+        <v>5271.856053484359</v>
       </c>
       <c r="R5">
-        <v>13955.80060526181</v>
+        <v>47446.70448135924</v>
       </c>
       <c r="S5">
-        <v>0.4496050214535688</v>
+        <v>0.6469916086607632</v>
       </c>
       <c r="T5">
-        <v>0.4496050214535688</v>
+        <v>0.6469916086607632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q6">
         <v>21.29505672665622</v>
@@ -818,10 +818,10 @@
         <v>191.655510539906</v>
       </c>
       <c r="S6">
-        <v>0.00617444189446934</v>
+        <v>0.002613448255855795</v>
       </c>
       <c r="T6">
-        <v>0.00617444189446934</v>
+        <v>0.002613448255855795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q7">
         <v>39.95612981492844</v>
@@ -880,10 +880,10 @@
         <v>359.605168334356</v>
       </c>
       <c r="S7">
-        <v>0.01158516763006942</v>
+        <v>0.004903639333576415</v>
       </c>
       <c r="T7">
-        <v>0.01158516763006942</v>
+        <v>0.004903639333576415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J8">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N8">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q8">
-        <v>782.4295366822947</v>
+        <v>2660.091244815776</v>
       </c>
       <c r="R8">
-        <v>7041.865830140652</v>
+        <v>23940.82120334198</v>
       </c>
       <c r="S8">
-        <v>0.2268632468451741</v>
+        <v>0.3264612493602254</v>
       </c>
       <c r="T8">
-        <v>0.2268632468451741</v>
+        <v>0.3264612493602254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J9">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q9">
         <v>10.74513290608411</v>
@@ -1004,10 +1004,10 @@
         <v>96.70619615475701</v>
       </c>
       <c r="S9">
-        <v>0.003115521110301566</v>
+        <v>0.00131870270235968</v>
       </c>
       <c r="T9">
-        <v>0.003115521110301566</v>
+        <v>0.00131870270235968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J10">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q10">
         <v>20.16120129592023</v>
@@ -1066,10 +1066,10 @@
         <v>181.450811663282</v>
       </c>
       <c r="S10">
-        <v>0.005845683696561162</v>
+        <v>0.002474295186864891</v>
       </c>
       <c r="T10">
-        <v>0.005845683696561161</v>
+        <v>0.002474295186864891</v>
       </c>
     </row>
   </sheetData>
